--- a/data/134/DEUSTATIS/Volume index of stock of orders_historical.xlsx
+++ b/data/134/DEUSTATIS/Volume index of stock of orders_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume index of stock of orders" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,395 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>Total//Total</t>
-  </si>
-  <si>
-    <t>Building construction//Dwelling</t>
-  </si>
-  <si>
-    <t>Building construction//excluding dwellings</t>
-  </si>
-  <si>
-    <t>Civil engineering//Roads</t>
-  </si>
-  <si>
-    <t>Civil engineering//excluding roads</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -755,380 +366,628 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:124">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:124">
-      <c r="A2" s="1" t="s">
-        <v>123</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Total//Total</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>118</v>
@@ -1500,9 +1359,11 @@
         <v>165.8</v>
       </c>
     </row>
-    <row r="3" spans="1:124">
-      <c r="A3" s="1" t="s">
-        <v>124</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Building construction//Dwelling</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>118.8</v>
@@ -1874,9 +1735,11 @@
         <v>181.2</v>
       </c>
     </row>
-    <row r="4" spans="1:124">
-      <c r="A4" s="1" t="s">
-        <v>125</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Building construction//excluding dwellings</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>143.9</v>
@@ -2248,9 +2111,11 @@
         <v>151.4</v>
       </c>
     </row>
-    <row r="5" spans="1:124">
-      <c r="A5" s="1" t="s">
-        <v>126</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Civil engineering//Roads</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>83.40000000000001</v>
@@ -2622,9 +2487,11 @@
         <v>184.2</v>
       </c>
     </row>
-    <row r="6" spans="1:124">
-      <c r="A6" s="1" t="s">
-        <v>127</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Civil engineering//excluding roads</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>106.3</v>

--- a/data/134/DEUSTATIS/Volume index of stock of orders_historical.xlsx
+++ b/data/134/DEUSTATIS/Volume index of stock of orders_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT6"/>
+  <dimension ref="A1:DU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,6 +982,11 @@
           <t>2021-Q3</t>
         </is>
       </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1358,6 +1363,9 @@
       <c r="DT2" t="n">
         <v>165.8</v>
       </c>
+      <c r="DU2" t="n">
+        <v>162.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1734,6 +1742,9 @@
       <c r="DT3" t="n">
         <v>181.2</v>
       </c>
+      <c r="DU3" t="n">
+        <v>178.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2110,6 +2121,9 @@
       <c r="DT4" t="n">
         <v>151.4</v>
       </c>
+      <c r="DU4" t="n">
+        <v>153.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2486,6 +2500,9 @@
       <c r="DT5" t="n">
         <v>184.2</v>
       </c>
+      <c r="DU5" t="n">
+        <v>164.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2861,6 +2878,9 @@
       </c>
       <c r="DT6" t="n">
         <v>163.8</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>162.3</v>
       </c>
     </row>
   </sheetData>

--- a/data/134/DEUSTATIS/Volume index of stock of orders_historical.xlsx
+++ b/data/134/DEUSTATIS/Volume index of stock of orders_historical.xlsx
@@ -1,37 +1,432 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume index of stock of orders" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Volume index of stock of orders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+  <si>
+    <t>1991-Q1</t>
+  </si>
+  <si>
+    <t>1991-Q2</t>
+  </si>
+  <si>
+    <t>1991-Q3</t>
+  </si>
+  <si>
+    <t>1991-Q4</t>
+  </si>
+  <si>
+    <t>1992-Q1</t>
+  </si>
+  <si>
+    <t>1992-Q2</t>
+  </si>
+  <si>
+    <t>1992-Q3</t>
+  </si>
+  <si>
+    <t>1992-Q4</t>
+  </si>
+  <si>
+    <t>1993-Q1</t>
+  </si>
+  <si>
+    <t>1993-Q2</t>
+  </si>
+  <si>
+    <t>1993-Q3</t>
+  </si>
+  <si>
+    <t>1993-Q4</t>
+  </si>
+  <si>
+    <t>1994-Q1</t>
+  </si>
+  <si>
+    <t>1994-Q2</t>
+  </si>
+  <si>
+    <t>1994-Q3</t>
+  </si>
+  <si>
+    <t>1994-Q4</t>
+  </si>
+  <si>
+    <t>1995-Q1</t>
+  </si>
+  <si>
+    <t>1995-Q2</t>
+  </si>
+  <si>
+    <t>1995-Q3</t>
+  </si>
+  <si>
+    <t>1995-Q4</t>
+  </si>
+  <si>
+    <t>1996-Q1</t>
+  </si>
+  <si>
+    <t>1996-Q2</t>
+  </si>
+  <si>
+    <t>1996-Q3</t>
+  </si>
+  <si>
+    <t>1996-Q4</t>
+  </si>
+  <si>
+    <t>1997-Q1</t>
+  </si>
+  <si>
+    <t>1997-Q2</t>
+  </si>
+  <si>
+    <t>1997-Q3</t>
+  </si>
+  <si>
+    <t>1997-Q4</t>
+  </si>
+  <si>
+    <t>1998-Q1</t>
+  </si>
+  <si>
+    <t>1998-Q2</t>
+  </si>
+  <si>
+    <t>1998-Q3</t>
+  </si>
+  <si>
+    <t>1998-Q4</t>
+  </si>
+  <si>
+    <t>1999-Q1</t>
+  </si>
+  <si>
+    <t>1999-Q2</t>
+  </si>
+  <si>
+    <t>1999-Q3</t>
+  </si>
+  <si>
+    <t>1999-Q4</t>
+  </si>
+  <si>
+    <t>2000-Q1</t>
+  </si>
+  <si>
+    <t>2000-Q2</t>
+  </si>
+  <si>
+    <t>2000-Q3</t>
+  </si>
+  <si>
+    <t>2000-Q4</t>
+  </si>
+  <si>
+    <t>2001-Q1</t>
+  </si>
+  <si>
+    <t>2001-Q2</t>
+  </si>
+  <si>
+    <t>2001-Q3</t>
+  </si>
+  <si>
+    <t>2001-Q4</t>
+  </si>
+  <si>
+    <t>2002-Q1</t>
+  </si>
+  <si>
+    <t>2002-Q2</t>
+  </si>
+  <si>
+    <t>2002-Q3</t>
+  </si>
+  <si>
+    <t>2002-Q4</t>
+  </si>
+  <si>
+    <t>2003-Q1</t>
+  </si>
+  <si>
+    <t>2003-Q2</t>
+  </si>
+  <si>
+    <t>2003-Q3</t>
+  </si>
+  <si>
+    <t>2003-Q4</t>
+  </si>
+  <si>
+    <t>2004-Q1</t>
+  </si>
+  <si>
+    <t>2004-Q2</t>
+  </si>
+  <si>
+    <t>2004-Q3</t>
+  </si>
+  <si>
+    <t>2004-Q4</t>
+  </si>
+  <si>
+    <t>2005-Q1</t>
+  </si>
+  <si>
+    <t>2005-Q2</t>
+  </si>
+  <si>
+    <t>2005-Q3</t>
+  </si>
+  <si>
+    <t>2005-Q4</t>
+  </si>
+  <si>
+    <t>2006-Q1</t>
+  </si>
+  <si>
+    <t>2006-Q2</t>
+  </si>
+  <si>
+    <t>2006-Q3</t>
+  </si>
+  <si>
+    <t>2006-Q4</t>
+  </si>
+  <si>
+    <t>2007-Q1</t>
+  </si>
+  <si>
+    <t>2007-Q2</t>
+  </si>
+  <si>
+    <t>2007-Q3</t>
+  </si>
+  <si>
+    <t>2007-Q4</t>
+  </si>
+  <si>
+    <t>2008-Q1</t>
+  </si>
+  <si>
+    <t>2008-Q2</t>
+  </si>
+  <si>
+    <t>2008-Q3</t>
+  </si>
+  <si>
+    <t>2008-Q4</t>
+  </si>
+  <si>
+    <t>2009-Q1</t>
+  </si>
+  <si>
+    <t>2009-Q2</t>
+  </si>
+  <si>
+    <t>2009-Q3</t>
+  </si>
+  <si>
+    <t>2009-Q4</t>
+  </si>
+  <si>
+    <t>2010-Q1</t>
+  </si>
+  <si>
+    <t>2010-Q2</t>
+  </si>
+  <si>
+    <t>2010-Q3</t>
+  </si>
+  <si>
+    <t>2010-Q4</t>
+  </si>
+  <si>
+    <t>2011-Q1</t>
+  </si>
+  <si>
+    <t>2011-Q2</t>
+  </si>
+  <si>
+    <t>2011-Q3</t>
+  </si>
+  <si>
+    <t>2011-Q4</t>
+  </si>
+  <si>
+    <t>2012-Q1</t>
+  </si>
+  <si>
+    <t>2012-Q2</t>
+  </si>
+  <si>
+    <t>2012-Q3</t>
+  </si>
+  <si>
+    <t>2012-Q4</t>
+  </si>
+  <si>
+    <t>2013-Q1</t>
+  </si>
+  <si>
+    <t>2013-Q2</t>
+  </si>
+  <si>
+    <t>2013-Q3</t>
+  </si>
+  <si>
+    <t>2013-Q4</t>
+  </si>
+  <si>
+    <t>2014-Q1</t>
+  </si>
+  <si>
+    <t>2014-Q2</t>
+  </si>
+  <si>
+    <t>2014-Q3</t>
+  </si>
+  <si>
+    <t>2014-Q4</t>
+  </si>
+  <si>
+    <t>2015-Q1</t>
+  </si>
+  <si>
+    <t>2015-Q2</t>
+  </si>
+  <si>
+    <t>2015-Q3</t>
+  </si>
+  <si>
+    <t>2015-Q4</t>
+  </si>
+  <si>
+    <t>2016-Q1</t>
+  </si>
+  <si>
+    <t>2016-Q2</t>
+  </si>
+  <si>
+    <t>2016-Q3</t>
+  </si>
+  <si>
+    <t>2016-Q4</t>
+  </si>
+  <si>
+    <t>2017-Q1</t>
+  </si>
+  <si>
+    <t>2017-Q2</t>
+  </si>
+  <si>
+    <t>2017-Q3</t>
+  </si>
+  <si>
+    <t>2017-Q4</t>
+  </si>
+  <si>
+    <t>2018-Q1</t>
+  </si>
+  <si>
+    <t>2018-Q2</t>
+  </si>
+  <si>
+    <t>2018-Q3</t>
+  </si>
+  <si>
+    <t>2018-Q4</t>
+  </si>
+  <si>
+    <t>2019-Q1</t>
+  </si>
+  <si>
+    <t>2019-Q2</t>
+  </si>
+  <si>
+    <t>2019-Q3</t>
+  </si>
+  <si>
+    <t>2019-Q4</t>
+  </si>
+  <si>
+    <t>2020-Q1</t>
+  </si>
+  <si>
+    <t>2020-Q2</t>
+  </si>
+  <si>
+    <t>2020-Q3</t>
+  </si>
+  <si>
+    <t>2020-Q4</t>
+  </si>
+  <si>
+    <t>2021-Q1</t>
+  </si>
+  <si>
+    <t>2021-Q2</t>
+  </si>
+  <si>
+    <t>2021-Q3</t>
+  </si>
+  <si>
+    <t>2021-Q4</t>
+  </si>
+  <si>
+    <t>Total//Total</t>
+  </si>
+  <si>
+    <t>Building construction//Dwelling</t>
+  </si>
+  <si>
+    <t>Building construction//excluding dwellings</t>
+  </si>
+  <si>
+    <t>Civil engineering//Roads</t>
+  </si>
+  <si>
+    <t>Civil engineering//excluding roads</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +441,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +460,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,2537 +757,2273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DU6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q2</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q3</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q4</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q3</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q4</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q2</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q3</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q4</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q2</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q3</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q3</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q4</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q2</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q4</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q1</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q4</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q1</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q2</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q3</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q4</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q1</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q2</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q3</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q4</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q1</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q2</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q3</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q4</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q2</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q3</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q4</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q1</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q2</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q3</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q4</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q1</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q2</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q3</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q4</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q1</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q2</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q3</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q4</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q1</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q2</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q3</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q4</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q2</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q3</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q4</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q1</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q2</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q3</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q4</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q1</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q2</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q3</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q4</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q1</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q2</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q3</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q4</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q1</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q2</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q3</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q4</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q1</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q2</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q3</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q4</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q1</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q2</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q3</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q4</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q1</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q2</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q3</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q4</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q1</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q2</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q3</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q4</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q1</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q2</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q3</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q4</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q2</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q3</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
+    <row r="1" spans="1:125">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Total//Total</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:125">
+      <c r="A2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2">
         <v>118</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>121.1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>123.9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>119.5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>131.2</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>135.7</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>129.6</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>126.1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>137.1</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>137.6</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>135.6</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>136.5</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>148</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>151.4</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>149.9</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>140.8</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>148.3</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>148.4</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>145.7</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>132.6</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>145</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>145.3</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>139.5</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>126.3</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>130.6</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>130.9</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>125.2</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>111.9</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>115</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>125.3</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>122.4</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>115.2</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>123.4</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>130.9</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>124.1</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>108</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>112</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>114.5</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>106.8</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>96.59999999999999</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>102.4</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>107.6</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>101.1</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>90.8</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>99.5</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>99.7</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>96</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>86.09999999999999</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>91.5</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>92.2</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>87.3</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>78.5</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>85.09999999999999</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>84.09999999999999</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>80</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>70.2</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>76</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>79.40000000000001</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>79.2</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>72.7</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>81.90000000000001</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>85.3</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>81.2</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>70.2</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>77.59999999999999</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>84.7</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>85.40000000000001</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>81.09999999999999</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>87.3</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>91.3</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>87.2</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>77.40000000000001</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>81.7</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>86.09999999999999</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>84.59999999999999</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>76.09999999999999</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="BZ2">
         <v>90</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CA2">
         <v>92.90000000000001</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CB2">
         <v>89.09999999999999</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CC2">
         <v>81.59999999999999</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CD2">
         <v>88.40000000000001</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CE2">
         <v>92.5</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CF2">
         <v>89.09999999999999</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CG2">
         <v>77.5</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CH2">
         <v>89.09999999999999</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CI2">
         <v>92.40000000000001</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CJ2">
         <v>88.7</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CK2">
         <v>81</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CL2">
         <v>94.59999999999999</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CM2">
         <v>99.2</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CN2">
         <v>95.3</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CO2">
         <v>87.40000000000001</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CP2">
         <v>95.2</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CQ2">
         <v>99.3</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CR2">
         <v>96.3</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CS2">
         <v>89.7</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CT2">
         <v>100.1</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CU2">
         <v>104.6</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CV2">
         <v>100.6</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CW2">
         <v>94.8</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CX2">
         <v>109.3</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CY2">
         <v>120.7</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="CZ2">
         <v>121.9</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DA2">
         <v>114.7</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DB2">
         <v>131.8</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DC2">
         <v>137.1</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DD2">
         <v>133.1</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DE2">
         <v>128.6</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DF2">
         <v>143</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DG2">
         <v>147.6</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DH2">
         <v>143.5</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DI2">
         <v>138.5</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DJ2">
         <v>155.3</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DK2">
         <v>159.2</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DL2">
         <v>155.1</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DM2">
         <v>150.7</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DN2">
         <v>163.3</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DO2">
         <v>166.4</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DP2">
         <v>163.7</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DQ2">
         <v>157.2</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DR2">
         <v>170.3</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DS2">
         <v>169.2</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DT2">
         <v>165.8</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DU2">
         <v>162.5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Building construction//Dwelling</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:125">
+      <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
         <v>118.8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>115.2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>118.3</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>118.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>130.1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>137.9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>135.7</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>135.7</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>153.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>163.2</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>169.4</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>184.5</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>208.6</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>215.3</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>212.4</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>206.1</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>211.3</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>207.3</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>187.1</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>175.1</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>200.4</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>204</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>190.8</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>172.5</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>177.4</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>169.3</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>151.4</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>136</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>145.5</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>152</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>145.2</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>136.8</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>151.4</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>153.1</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>143.2</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>118.3</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>123.1</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>121.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>108.8</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>91.2</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>96.90000000000001</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>100.7</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>90.7</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>74.2</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>84.40000000000001</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>83.09999999999999</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>72.40000000000001</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>67.5</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>70.59999999999999</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>72.09999999999999</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>70</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>66.40000000000001</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>69.90000000000001</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>69.3</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>66.09999999999999</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>56.6</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>65.90000000000001</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>66.2</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>63.5</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>57.7</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>66.8</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>69.09999999999999</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>66.8</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>57.2</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>58.1</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>61.2</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>59.4</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>53.4</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>52.3</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>54.1</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>53.1</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>44.5</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>46.1</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>51.1</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>50.9</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>48.6</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3">
         <v>57.5</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CA3">
         <v>58.5</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CB3">
         <v>59.6</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CC3">
         <v>60.7</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CD3">
         <v>66.8</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CE3">
         <v>74.3</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CF3">
         <v>72.5</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CG3">
         <v>70.09999999999999</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CH3">
         <v>76</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CI3">
         <v>80.59999999999999</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CJ3">
         <v>77.2</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CK3">
         <v>72.90000000000001</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CL3">
         <v>80.2</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CM3">
         <v>86.90000000000001</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CN3">
         <v>80.59999999999999</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CO3">
         <v>74.2</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CP3">
         <v>82.2</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CQ3">
         <v>89.3</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CR3">
         <v>82.8</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CS3">
         <v>84</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CT3">
         <v>92.3</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CU3">
         <v>100.5</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="CV3">
         <v>104.1</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CW3">
         <v>103.2</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CX3">
         <v>112.7</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CY3">
         <v>123.3</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="CZ3">
         <v>133.6</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DA3">
         <v>123.4</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DB3">
         <v>140</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DC3">
         <v>145</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DD3">
         <v>134.7</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DE3">
         <v>135</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DF3">
         <v>144.2</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DG3">
         <v>150.7</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DH3">
         <v>149.1</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DI3">
         <v>154.1</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DJ3">
         <v>166.9</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DK3">
         <v>170.8</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DL3">
         <v>168.6</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DM3">
         <v>165.9</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DN3">
         <v>174</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DO3">
         <v>168.4</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DP3">
         <v>171</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DQ3">
         <v>172.4</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DR3">
         <v>186.3</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DS3">
         <v>183.5</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DT3">
         <v>181.2</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DU3">
         <v>178.1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Building construction//excluding dwellings</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:125">
+      <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4">
         <v>143.9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>148.6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>153.6</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>150.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>161.4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>165.8</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>158.9</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>160.2</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>165.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>165.5</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>160.5</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>161.7</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>168.1</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>173.6</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>171.9</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>166.8</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>174.2</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>173.6</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>171.4</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>158.7</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>161.8</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>162</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>155.6</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>142.3</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>141.1</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>141.4</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>137.4</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>127.8</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>125.5</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>137.1</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>119.6</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>119.1</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>122.3</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>133</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>126.7</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>115.1</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>118.8</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>122.2</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>117.8</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>112.2</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>115.9</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>123.9</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>119.2</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>113.1</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>114.8</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>111.4</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>110.2</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>99.59999999999999</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>99.5</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>99.40000000000001</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>93.40000000000001</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>88.2</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>93.59999999999999</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>88.59999999999999</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>84.8</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>79.2</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>82.7</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>86.09999999999999</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>83.7</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>83.7</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>91.8</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>92.3</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>88</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>82.7</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>89.59999999999999</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>97.7</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>97.90000000000001</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>94.8</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>102.3</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>106.6</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>101.8</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>91.3</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>87.90000000000001</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>87.3</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>88.5</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>82.3</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="BZ4">
         <v>90.5</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CA4">
         <v>95</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CB4">
         <v>90.90000000000001</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CC4">
         <v>84</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CD4">
         <v>86.59999999999999</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CE4">
         <v>92.3</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CF4">
         <v>89.8</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CG4">
         <v>82.90000000000001</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CH4">
         <v>91.40000000000001</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CI4">
         <v>93.09999999999999</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CJ4">
         <v>93.40000000000001</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CK4">
         <v>87.90000000000001</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CL4">
         <v>96</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CM4">
         <v>103.5</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CN4">
         <v>99.2</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CO4">
         <v>96.40000000000001</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CP4">
         <v>102.2</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CQ4">
         <v>102.2</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CR4">
         <v>103.6</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CS4">
         <v>95.90000000000001</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CT4">
         <v>102.2</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="CU4">
         <v>103.7</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="CV4">
         <v>99.09999999999999</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CW4">
         <v>95</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="CX4">
         <v>103.2</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="CY4">
         <v>116.9</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="CZ4">
         <v>116.6</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DA4">
         <v>115.8</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DB4">
         <v>128.5</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DC4">
         <v>134.3</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DD4">
         <v>132.7</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DE4">
         <v>130.7</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DF4">
         <v>137.6</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DG4">
         <v>139.4</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DH4">
         <v>138.4</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DI4">
         <v>132</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DJ4">
         <v>144.9</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DK4">
         <v>148.4</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DL4">
         <v>147.5</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DM4">
         <v>147.6</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DN4">
         <v>158.8</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DO4">
         <v>155.5</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DP4">
         <v>153.8</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DQ4">
         <v>147.1</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DR4">
         <v>155.1</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DS4">
         <v>152</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DT4">
         <v>151.4</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DU4">
         <v>153.7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Civil engineering//Roads</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:125">
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5">
         <v>83.40000000000001</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>91.8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>94.09999999999999</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>81.7</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>86.2</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>94.59999999999999</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>89.2</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>77.09999999999999</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>86.2</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>84.59999999999999</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>84.2</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>75.90000000000001</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>84.5</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>88.59999999999999</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>93.8</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>76.09999999999999</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>84.7</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>91.09999999999999</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>95.7</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>77.09999999999999</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>93.3</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>97.3</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>94.90000000000001</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>86.3</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>92.5</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>96.7</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>95</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>77.09999999999999</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>86.90000000000001</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>105.3</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>105.8</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>91.90000000000001</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>106.6</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>111.5</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>108.8</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>85</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>93.8</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>98.09999999999999</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>93.2</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>79.2</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>89.5</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>100.6</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>96.59999999999999</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>77</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>92</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>99.3</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>96.59999999999999</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>81.8</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>98.09999999999999</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>98.40000000000001</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>92</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>71.7</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>88.2</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>95</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>88.8</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>72.7</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>86</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>92.8</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>95.5</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>77.8</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>91.59999999999999</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>104.3</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>98.7</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>73.3</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>83.7</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>98.2</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>101.9</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>87.8</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>101.4</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>110.2</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>105.6</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>85.8</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>105.6</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>122.2</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>110.1</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>88.7</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="BZ5">
         <v>110.7</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CA5">
         <v>118.6</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CB5">
         <v>112.2</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CC5">
         <v>94</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CD5">
         <v>100.8</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CE5">
         <v>103</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CF5">
         <v>96.7</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CG5">
         <v>71.7</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CH5">
         <v>90.40000000000001</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CI5">
         <v>103.2</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CJ5">
         <v>93</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CK5">
         <v>76.3</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CL5">
         <v>104.6</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CM5">
         <v>114.6</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CN5">
         <v>107.7</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CO5">
         <v>88.5</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CP5">
         <v>104</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CQ5">
         <v>110.7</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CR5">
         <v>100.5</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CS5">
         <v>79.3</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CT5">
         <v>96.40000000000001</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="CU5">
         <v>110.7</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="CV5">
         <v>104.2</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="CW5">
         <v>88.7</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="CX5">
         <v>119.1</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="CY5">
         <v>136.3</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="CZ5">
         <v>138.2</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DA5">
         <v>116</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DB5">
         <v>146.6</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DC5">
         <v>159.4</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DD5">
         <v>152.8</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DE5">
         <v>138.7</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DF5">
         <v>169.3</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DG5">
         <v>181.8</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DH5">
         <v>167</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DI5">
         <v>143.7</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DJ5">
         <v>169.9</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DK5">
         <v>182.4</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DL5">
         <v>167.7</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DM5">
         <v>146</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DN5">
         <v>163.9</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DO5">
         <v>185</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DP5">
         <v>175.9</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DQ5">
         <v>157.9</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DR5">
         <v>177.7</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DS5">
         <v>185.3</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DT5">
         <v>184.2</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DU5">
         <v>164.6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Civil engineering//excluding roads</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:125">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6">
         <v>106.3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>108.6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>109.3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>104.9</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>120.8</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>121.8</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>114.3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>107.7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>122.1</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>119</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>115.1</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>112.3</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>123.6</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>122.5</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>119.2</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>108</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>116.1</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>116.4</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>119.5</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>108</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>121.4</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>118.1</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>115.5</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>102.9</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>112</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>115.2</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>112.2</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>98.3</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>100.4</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>107.6</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>120.8</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>110.4</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>117.5</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>126.1</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>118.4</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>105.6</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>107</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>110.6</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>100.4</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>91</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>97.09999999999999</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>97.40000000000001</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>89.3</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>82.7</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>94.59999999999999</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>96</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>93.59999999999999</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>83.8</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>90.90000000000001</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>92.7</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>87.8</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>77.8</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>82.59999999999999</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>82</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>78.09999999999999</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>66.7</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>69.40000000000001</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>73</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>74.90000000000001</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>66.7</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>74.59999999999999</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>77.2</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>73.2</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>62.1</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>72.2</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>77.09999999999999</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>78.2</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>78.2</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>83.3</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>85.8</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>81.3</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>76.40000000000001</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>83.09999999999999</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>86.7</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>86.3</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>78.3</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="BZ6">
         <v>97.40000000000001</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CA6">
         <v>96.8</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CB6">
         <v>91.90000000000001</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CC6">
         <v>84.40000000000001</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CD6">
         <v>96</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CE6">
         <v>97.59999999999999</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CF6">
         <v>93.5</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CG6">
         <v>78.59999999999999</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CH6">
         <v>93.09999999999999</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CI6">
         <v>93.09999999999999</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CJ6">
         <v>88</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CK6">
         <v>80.3</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CL6">
         <v>96.2</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CM6">
         <v>94</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CN6">
         <v>93</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CO6">
         <v>84.40000000000001</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CP6">
         <v>90.5</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CQ6">
         <v>96</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CR6">
         <v>93.7</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CS6">
         <v>91.2</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="CT6">
         <v>104</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="CU6">
         <v>104.9</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="CV6">
         <v>98.3</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="CW6">
         <v>92.7</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CX6">
         <v>109.3</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CY6">
         <v>115.4</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="CZ6">
         <v>113.1</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DA6">
         <v>108.1</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DB6">
         <v>123.3</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DC6">
         <v>124.6</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DD6">
         <v>122.9</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DE6">
         <v>117.6</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DF6">
         <v>135.1</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="DG6">
         <v>137.8</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DH6">
         <v>134.2</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DI6">
         <v>134.2</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DJ6">
         <v>153.1</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DK6">
         <v>152.9</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DL6">
         <v>149.7</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DM6">
         <v>148</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DN6">
         <v>161.9</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DO6">
         <v>167.7</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DP6">
         <v>164.3</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DQ6">
         <v>159.6</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DR6">
         <v>174.4</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DS6">
         <v>172.1</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DT6">
         <v>163.8</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DU6">
         <v>162.3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>